--- a/Results/Calculation/lda2vec-partial-ner-glove.xlsx
+++ b/Results/Calculation/lda2vec-partial-ner-glove.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="G2">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="H2">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="I2">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -464,10 +464,10 @@
         <v>169</v>
       </c>
       <c r="C3">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>48</v>
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="G4">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="H4">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>0.49</v>
       </c>
       <c r="G5">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H5">
         <v>0.57</v>
       </c>
       <c r="I5">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
